--- a/documentation/module/automata_table.xlsx
+++ b/documentation/module/automata_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\CLionProjects\Syntax_Colorizer\documentation\module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A1E545-9FB2-4775-A087-3AB9065091D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C2F7C8-502A-4190-BD00-7454EF2EC7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{4AF46ED1-15A5-40DA-A773-FB62A47A4A84}"/>
+    <workbookView xWindow="-294" yWindow="2754" windowWidth="17280" windowHeight="8904" xr2:uid="{4AF46ED1-15A5-40DA-A773-FB62A47A4A84}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="92">
   <si>
     <t>State Number</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>WHITE_SYMBOL_TOKEN</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -716,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E84D02-9639-4E74-9F05-164E5361D43D}">
-  <dimension ref="A1:CN31"/>
+  <dimension ref="A1:CO31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CB13" sqref="CB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -729,7 +732,7 @@
     <col min="84" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="4" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:93" s="4" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1006,8 +1009,11 @@
       <c r="CN1" s="3" t="s">
         <v>87</v>
       </c>
+      <c r="CO1" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="2" spans="1:92" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:93" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -1284,8 +1290,11 @@
       <c r="CN2">
         <v>8</v>
       </c>
+      <c r="CO2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:92" s="4" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:93" s="4" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>72</v>
       </c>
@@ -1380,8 +1389,9 @@
       <c r="CL3" s="3"/>
       <c r="CM3" s="3"/>
       <c r="CN3" s="3"/>
+      <c r="CO3" s="3"/>
     </row>
-    <row r="4" spans="1:92" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:93" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="2" t="s">
         <v>73</v>
       </c>
@@ -1476,8 +1486,9 @@
       <c r="CL4" s="3"/>
       <c r="CM4" s="3"/>
       <c r="CN4" s="3"/>
+      <c r="CO4" s="3"/>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -1754,8 +1765,11 @@
       <c r="CN5">
         <v>2</v>
       </c>
+      <c r="CO5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:92" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:93" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -2032,8 +2046,11 @@
       <c r="CN6" t="s">
         <v>76</v>
       </c>
+      <c r="CO6" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="7" spans="1:92" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:93" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="2" t="s">
         <v>74</v>
       </c>
@@ -2128,8 +2145,9 @@
       <c r="CL7" s="3"/>
       <c r="CM7" s="3"/>
       <c r="CN7" s="3"/>
+      <c r="CO7" s="3"/>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7">
         <v>3</v>
       </c>
@@ -2406,8 +2424,11 @@
       <c r="CN8">
         <v>4</v>
       </c>
+      <c r="CO8">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:92" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:93" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -2684,8 +2705,11 @@
       <c r="CN9" t="s">
         <v>76</v>
       </c>
+      <c r="CO9" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="10" spans="1:92" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:93" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="2" t="s">
         <v>75</v>
       </c>
@@ -2780,8 +2804,9 @@
       <c r="CL10" s="3"/>
       <c r="CM10" s="3"/>
       <c r="CN10" s="3"/>
+      <c r="CO10" s="3"/>
     </row>
-    <row r="11" spans="1:92" s="4" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:93" s="4" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="7">
         <v>5</v>
       </c>
@@ -3058,8 +3083,11 @@
       <c r="CN11">
         <v>6</v>
       </c>
+      <c r="CO11">
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" spans="1:92" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:93" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="5">
         <v>6</v>
       </c>
@@ -3336,8 +3364,11 @@
       <c r="CN12" t="s">
         <v>76</v>
       </c>
+      <c r="CO12" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="13" spans="1:92" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:93" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="2" t="s">
         <v>85</v>
       </c>
@@ -3432,8 +3463,9 @@
       <c r="CL13" s="3"/>
       <c r="CM13" s="3"/>
       <c r="CN13" s="3"/>
+      <c r="CO13" s="3"/>
     </row>
-    <row r="14" spans="1:92" s="4" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:93" s="4" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="5">
         <v>7</v>
       </c>
@@ -3707,9 +3739,14 @@
       <c r="CM14" t="s">
         <v>76</v>
       </c>
-      <c r="CN14"/>
+      <c r="CN14" t="s">
+        <v>76</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="15" spans="1:92" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:93" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="2" t="s">
         <v>86</v>
       </c>
@@ -3804,8 +3841,9 @@
       <c r="CL15" s="3"/>
       <c r="CM15" s="3"/>
       <c r="CN15" s="3"/>
+      <c r="CO15" s="3"/>
     </row>
-    <row r="16" spans="1:92" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:93" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -4082,8 +4120,11 @@
       <c r="CN16">
         <v>9</v>
       </c>
+      <c r="CO16">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:92" s="4" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:93" s="4" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="5">
         <v>9</v>
       </c>
@@ -4360,8 +4401,11 @@
       <c r="CN17" t="s">
         <v>76</v>
       </c>
+      <c r="CO17" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="18" spans="1:92" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:93" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="2" t="s">
         <v>88</v>
       </c>
@@ -4456,8 +4500,9 @@
       <c r="CL18" s="3"/>
       <c r="CM18" s="3"/>
       <c r="CN18" s="3"/>
+      <c r="CO18" s="3"/>
     </row>
-    <row r="19" spans="1:92" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:93" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="7">
         <v>10</v>
       </c>
@@ -4734,8 +4779,11 @@
       <c r="CN19">
         <v>18</v>
       </c>
+      <c r="CO19">
+        <v>18</v>
+      </c>
     </row>
-    <row r="20" spans="1:92" s="4" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:93" s="4" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="7">
         <v>11</v>
       </c>
@@ -5012,8 +5060,11 @@
       <c r="CN20">
         <v>18</v>
       </c>
+      <c r="CO20">
+        <v>18</v>
+      </c>
     </row>
-    <row r="21" spans="1:92" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:93" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="7">
         <v>12</v>
       </c>
@@ -5290,8 +5341,11 @@
       <c r="CN21">
         <v>18</v>
       </c>
+      <c r="CO21">
+        <v>18</v>
+      </c>
     </row>
-    <row r="22" spans="1:92" s="4" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:93" s="4" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="7">
         <v>13</v>
       </c>
@@ -5568,8 +5622,11 @@
       <c r="CN22">
         <v>18</v>
       </c>
+      <c r="CO22">
+        <v>18</v>
+      </c>
     </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:93" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7">
         <v>14</v>
       </c>
@@ -5846,8 +5903,11 @@
       <c r="CN23">
         <v>18</v>
       </c>
+      <c r="CO23">
+        <v>18</v>
+      </c>
     </row>
-    <row r="24" spans="1:92" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:93" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="7">
         <v>15</v>
       </c>
@@ -6124,8 +6184,11 @@
       <c r="CN24">
         <v>18</v>
       </c>
+      <c r="CO24">
+        <v>18</v>
+      </c>
     </row>
-    <row r="25" spans="1:92" s="4" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:93" s="4" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="7">
         <v>16</v>
       </c>
@@ -6402,8 +6465,11 @@
       <c r="CN25">
         <v>18</v>
       </c>
+      <c r="CO25">
+        <v>18</v>
+      </c>
     </row>
-    <row r="26" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:93" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="5">
         <v>17</v>
       </c>
@@ -6680,8 +6746,11 @@
       <c r="CN26" t="s">
         <v>76</v>
       </c>
+      <c r="CO26" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="27" spans="1:92" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:93" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="5">
         <v>18</v>
       </c>
@@ -6958,8 +7027,11 @@
       <c r="CN27" t="s">
         <v>76</v>
       </c>
+      <c r="CO27" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="28" spans="1:92" s="4" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:93" s="4" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="2" t="s">
         <v>90</v>
       </c>
@@ -7054,8 +7126,9 @@
       <c r="CL28" s="3"/>
       <c r="CM28" s="3"/>
       <c r="CN28" s="3"/>
+      <c r="CO28" s="3"/>
     </row>
-    <row r="29" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:93" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7">
         <v>19</v>
       </c>
@@ -7332,8 +7405,11 @@
       <c r="CN29">
         <v>20</v>
       </c>
+      <c r="CO29">
+        <v>20</v>
+      </c>
     </row>
-    <row r="30" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:93" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="5">
         <v>20</v>
       </c>
@@ -7610,8 +7686,11 @@
       <c r="CN30" t="s">
         <v>76</v>
       </c>
+      <c r="CO30" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="31" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:93" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="5" t="s">
         <v>76</v>
       </c>
@@ -7886,6 +7965,9 @@
         <v>76</v>
       </c>
       <c r="CN31" t="s">
+        <v>76</v>
+      </c>
+      <c r="CO31" t="s">
         <v>76</v>
       </c>
     </row>

--- a/documentation/module/automata_table.xlsx
+++ b/documentation/module/automata_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\CLionProjects\Syntax_Colorizer\documentation\module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C2F7C8-502A-4190-BD00-7454EF2EC7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5414F79B-A8FE-4A28-8547-B94618A6A734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-294" yWindow="2754" windowWidth="17280" windowHeight="8904" xr2:uid="{4AF46ED1-15A5-40DA-A773-FB62A47A4A84}"/>
+    <workbookView xWindow="0" yWindow="2754" windowWidth="17280" windowHeight="8904" xr2:uid="{4AF46ED1-15A5-40DA-A773-FB62A47A4A84}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E84D02-9639-4E74-9F05-164E5361D43D}">
   <dimension ref="A1:CO31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="CB13" sqref="CB13"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
